--- a/Tables.xlsx
+++ b/Tables.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nabee\Desktop\CIND 820\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\singhga\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7271DE5C-54C9-4E37-BB94-E612D2C3B611}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7842D62-A948-408F-BE60-40A6550A1FE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" activeTab="5" xr2:uid="{1F3BEF87-4AA6-41A3-B027-6A1165375A75}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" activeTab="2" xr2:uid="{1F3BEF87-4AA6-41A3-B027-6A1165375A75}"/>
   </bookViews>
   <sheets>
     <sheet name="Base Models" sheetId="8" r:id="rId1"/>
@@ -24,17 +24,28 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Undersampling!$B$2:$J$44</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="52">
   <si>
     <t>LogisticRegression</t>
   </si>
@@ -197,7 +208,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="9">
     <font>
@@ -424,9 +435,9 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -446,7 +457,7 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -506,7 +517,6 @@
     <xf numFmtId="0" fontId="8" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -532,15 +542,6 @@
     <xf numFmtId="0" fontId="7" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -556,6 +557,15 @@
     <xf numFmtId="9" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="6" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="6" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1887,7 +1897,7 @@
           <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
@@ -7692,9 +7702,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -7732,7 +7742,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -7838,7 +7848,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -7980,7 +7990,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -7997,10 +8007,10 @@
       <selection pane="bottomRight" activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="17.5546875" customWidth="1"/>
-    <col min="3" max="11" width="13.44140625" customWidth="1"/>
+    <col min="2" max="2" width="17.5703125" customWidth="1"/>
+    <col min="3" max="11" width="13.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:13" ht="24" customHeight="1">
@@ -8033,7 +8043,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="2:13" ht="22.8">
+    <row r="3" spans="2:13" ht="21">
       <c r="B3" s="11" t="s">
         <v>21</v>
       </c>
@@ -8065,7 +8075,7 @@
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="4" spans="2:13" ht="22.8">
+    <row r="4" spans="2:13" ht="21">
       <c r="B4" s="11" t="s">
         <v>22</v>
       </c>
@@ -8139,17 +8149,16 @@
       <selection activeCell="B2" sqref="B2:K10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="18.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.77734375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.21875" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="6.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="6.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:12">
@@ -8458,20 +8467,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D713933B-699B-4F2E-8402-3C445BDB9497}">
   <dimension ref="B2:J54"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="I35" sqref="I35"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C42" sqref="C42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="23" customWidth="1"/>
-    <col min="3" max="3" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.77734375" customWidth="1"/>
-    <col min="5" max="5" width="9.109375" customWidth="1"/>
-    <col min="6" max="6" width="11.77734375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.88671875" customWidth="1"/>
+    <col min="3" max="3" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.7109375" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" customWidth="1"/>
+    <col min="6" max="7" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:10">
@@ -8498,7 +8506,7 @@
       <c r="G3" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="H3" s="33" t="s">
+      <c r="H3" s="32" t="s">
         <v>35</v>
       </c>
     </row>
@@ -8671,872 +8679,872 @@
       </c>
     </row>
     <row r="13" spans="2:10">
-      <c r="C13" s="38" t="s">
+      <c r="C13" s="37" t="s">
         <v>49</v>
       </c>
-      <c r="D13" s="39" t="s">
+      <c r="D13" s="45" t="s">
         <v>50</v>
       </c>
-      <c r="E13" s="40"/>
-      <c r="F13" s="40"/>
-      <c r="G13" s="40"/>
-      <c r="H13" s="40"/>
-      <c r="I13" s="41"/>
+      <c r="E13" s="46"/>
+      <c r="F13" s="46"/>
+      <c r="G13" s="46"/>
+      <c r="H13" s="46"/>
+      <c r="I13" s="47"/>
     </row>
     <row r="14" spans="2:10">
-      <c r="C14" s="37" t="s">
+      <c r="C14" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="37">
+      <c r="D14" s="36">
         <v>0.2</v>
       </c>
-      <c r="E14" s="37">
+      <c r="E14" s="36">
         <v>0.4</v>
       </c>
-      <c r="F14" s="37">
+      <c r="F14" s="36">
         <v>0.5</v>
       </c>
-      <c r="G14" s="37">
+      <c r="G14" s="36">
         <v>0.6</v>
       </c>
-      <c r="H14" s="37">
+      <c r="H14" s="36">
         <v>0.8</v>
       </c>
-      <c r="I14" s="37">
+      <c r="I14" s="36">
         <v>1</v>
       </c>
-      <c r="J14" s="37" t="s">
+      <c r="J14" s="36" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="15" spans="2:10" ht="15">
-      <c r="B15" s="42" t="s">
+    <row r="15" spans="2:10">
+      <c r="B15" s="38" t="s">
         <v>0</v>
       </c>
       <c r="C15" s="14">
         <v>0.9</v>
       </c>
-      <c r="D15" s="36">
+      <c r="D15" s="35">
         <f>+VLOOKUP($B15&amp;D$14,Undersampling!$B$2:$E$44,4,0)</f>
         <v>0.89</v>
       </c>
-      <c r="E15" s="36">
+      <c r="E15" s="35">
         <f>+VLOOKUP($B15&amp;E$14,Undersampling!$B$2:$E$44,4,0)</f>
         <v>0.87</v>
       </c>
-      <c r="F15" s="36">
+      <c r="F15" s="35">
         <f>+VLOOKUP($B15&amp;F$14,Undersampling!$B$2:$E$44,4,0)</f>
         <v>0.86</v>
       </c>
-      <c r="G15" s="36">
+      <c r="G15" s="35">
         <f>+VLOOKUP($B15&amp;G$14,Undersampling!$B$2:$E$44,4,0)</f>
         <v>0.86</v>
       </c>
-      <c r="H15" s="36">
+      <c r="H15" s="35">
         <f>+VLOOKUP($B15&amp;H$14,Undersampling!$B$2:$E$44,4,0)</f>
         <v>0.85</v>
       </c>
-      <c r="I15" s="36">
+      <c r="I15" s="35">
         <f>+VLOOKUP($B15&amp;I$14,Undersampling!$B$2:$E$44,4,0)</f>
         <v>0.84</v>
       </c>
-      <c r="J15" s="46">
+      <c r="J15" s="42">
         <f t="shared" ref="J15:J21" si="1">+C15-I15</f>
         <v>6.0000000000000053E-2</v>
       </c>
     </row>
-    <row r="16" spans="2:10" ht="15">
-      <c r="B16" s="42" t="s">
+    <row r="16" spans="2:10">
+      <c r="B16" s="38" t="s">
         <v>1</v>
       </c>
       <c r="C16" s="14">
         <v>0.91</v>
       </c>
-      <c r="D16" s="36">
+      <c r="D16" s="35">
         <f>+VLOOKUP($B16&amp;D$14,Undersampling!$B$2:$E$44,4,0)</f>
         <v>0.9</v>
       </c>
-      <c r="E16" s="36">
+      <c r="E16" s="35">
         <f>+VLOOKUP($B16&amp;E$14,Undersampling!$B$2:$E$44,4,0)</f>
         <v>0.87</v>
       </c>
-      <c r="F16" s="36">
+      <c r="F16" s="35">
         <f>+VLOOKUP($B16&amp;F$14,Undersampling!$B$2:$E$44,4,0)</f>
         <v>0.87</v>
       </c>
-      <c r="G16" s="36">
+      <c r="G16" s="35">
         <f>+VLOOKUP($B16&amp;G$14,Undersampling!$B$2:$E$44,4,0)</f>
         <v>0.86</v>
       </c>
-      <c r="H16" s="36">
+      <c r="H16" s="35">
         <f>+VLOOKUP($B16&amp;H$14,Undersampling!$B$2:$E$44,4,0)</f>
         <v>0.86</v>
       </c>
-      <c r="I16" s="36">
+      <c r="I16" s="35">
         <f>+VLOOKUP($B16&amp;I$14,Undersampling!$B$2:$E$44,4,0)</f>
         <v>0.85</v>
       </c>
-      <c r="J16" s="46">
+      <c r="J16" s="42">
         <f t="shared" si="1"/>
         <v>6.0000000000000053E-2</v>
       </c>
     </row>
-    <row r="17" spans="2:10" ht="15">
-      <c r="B17" s="42" t="s">
+    <row r="17" spans="2:10">
+      <c r="B17" s="38" t="s">
         <v>2</v>
       </c>
       <c r="C17" s="14">
         <v>0.86</v>
       </c>
-      <c r="D17" s="36">
+      <c r="D17" s="35">
         <f>+VLOOKUP($B17&amp;D$14,Undersampling!$B$2:$E$44,4,0)</f>
         <v>0.86</v>
       </c>
-      <c r="E17" s="36">
+      <c r="E17" s="35">
         <f>+VLOOKUP($B17&amp;E$14,Undersampling!$B$2:$E$44,4,0)</f>
         <v>0.82</v>
       </c>
-      <c r="F17" s="36">
+      <c r="F17" s="35">
         <f>+VLOOKUP($B17&amp;F$14,Undersampling!$B$2:$E$44,4,0)</f>
         <v>0.81</v>
       </c>
-      <c r="G17" s="36">
+      <c r="G17" s="35">
         <f>+VLOOKUP($B17&amp;G$14,Undersampling!$B$2:$E$44,4,0)</f>
         <v>0.8</v>
       </c>
-      <c r="H17" s="36">
+      <c r="H17" s="35">
         <f>+VLOOKUP($B17&amp;H$14,Undersampling!$B$2:$E$44,4,0)</f>
         <v>0.8</v>
       </c>
-      <c r="I17" s="36">
+      <c r="I17" s="35">
         <f>+VLOOKUP($B17&amp;I$14,Undersampling!$B$2:$E$44,4,0)</f>
         <v>0.79</v>
       </c>
-      <c r="J17" s="47">
+      <c r="J17" s="43">
         <f t="shared" si="1"/>
         <v>6.9999999999999951E-2</v>
       </c>
     </row>
-    <row r="18" spans="2:10" ht="15">
-      <c r="B18" s="42" t="s">
+    <row r="18" spans="2:10">
+      <c r="B18" s="38" t="s">
         <v>4</v>
       </c>
       <c r="C18" s="14">
         <v>0.9</v>
       </c>
-      <c r="D18" s="36">
+      <c r="D18" s="35">
         <f>+VLOOKUP($B18&amp;D$14,Undersampling!$B$2:$E$44,4,0)</f>
         <v>0.9</v>
       </c>
-      <c r="E18" s="36">
+      <c r="E18" s="35">
         <f>+VLOOKUP($B18&amp;E$14,Undersampling!$B$2:$E$44,4,0)</f>
         <v>0.87</v>
       </c>
-      <c r="F18" s="36">
+      <c r="F18" s="35">
         <f>+VLOOKUP($B18&amp;F$14,Undersampling!$B$2:$E$44,4,0)</f>
         <v>0.86</v>
       </c>
-      <c r="G18" s="36">
+      <c r="G18" s="35">
         <f>+VLOOKUP($B18&amp;G$14,Undersampling!$B$2:$E$44,4,0)</f>
         <v>0.85</v>
       </c>
-      <c r="H18" s="36">
+      <c r="H18" s="35">
         <f>+VLOOKUP($B18&amp;H$14,Undersampling!$B$2:$E$44,4,0)</f>
         <v>0.85</v>
       </c>
-      <c r="I18" s="36">
+      <c r="I18" s="35">
         <f>+VLOOKUP($B18&amp;I$14,Undersampling!$B$2:$E$44,4,0)</f>
         <v>0.84</v>
       </c>
-      <c r="J18" s="46">
+      <c r="J18" s="42">
         <f t="shared" si="1"/>
         <v>6.0000000000000053E-2</v>
       </c>
     </row>
-    <row r="19" spans="2:10" ht="15">
-      <c r="B19" s="42" t="s">
+    <row r="19" spans="2:10">
+      <c r="B19" s="38" t="s">
         <v>5</v>
       </c>
       <c r="C19" s="14">
         <v>0.89</v>
       </c>
-      <c r="D19" s="36">
+      <c r="D19" s="35">
         <f>+VLOOKUP($B19&amp;D$14,Undersampling!$B$2:$E$44,4,0)</f>
         <v>0.88</v>
       </c>
-      <c r="E19" s="36">
+      <c r="E19" s="35">
         <f>+VLOOKUP($B19&amp;E$14,Undersampling!$B$2:$E$44,4,0)</f>
         <v>0.85</v>
       </c>
-      <c r="F19" s="36">
+      <c r="F19" s="35">
         <f>+VLOOKUP($B19&amp;F$14,Undersampling!$B$2:$E$44,4,0)</f>
         <v>0.85</v>
       </c>
-      <c r="G19" s="36">
+      <c r="G19" s="35">
         <f>+VLOOKUP($B19&amp;G$14,Undersampling!$B$2:$E$44,4,0)</f>
         <v>0.84</v>
       </c>
-      <c r="H19" s="36">
+      <c r="H19" s="35">
         <f>+VLOOKUP($B19&amp;H$14,Undersampling!$B$2:$E$44,4,0)</f>
         <v>0.84</v>
       </c>
-      <c r="I19" s="36">
+      <c r="I19" s="35">
         <f>+VLOOKUP($B19&amp;I$14,Undersampling!$B$2:$E$44,4,0)</f>
         <v>0.83</v>
       </c>
-      <c r="J19" s="46">
+      <c r="J19" s="42">
         <f t="shared" si="1"/>
         <v>6.0000000000000053E-2</v>
       </c>
     </row>
-    <row r="20" spans="2:10" ht="15">
-      <c r="B20" s="42" t="s">
+    <row r="20" spans="2:10">
+      <c r="B20" s="38" t="s">
         <v>6</v>
       </c>
       <c r="C20" s="14">
         <v>0.91</v>
       </c>
-      <c r="D20" s="36">
+      <c r="D20" s="35">
         <f>+VLOOKUP($B20&amp;D$14,Undersampling!$B$2:$E$44,4,0)</f>
         <v>0.9</v>
       </c>
-      <c r="E20" s="36">
+      <c r="E20" s="35">
         <f>+VLOOKUP($B20&amp;E$14,Undersampling!$B$2:$E$44,4,0)</f>
         <v>0.87</v>
       </c>
-      <c r="F20" s="36">
+      <c r="F20" s="35">
         <f>+VLOOKUP($B20&amp;F$14,Undersampling!$B$2:$E$44,4,0)</f>
         <v>0.87</v>
       </c>
-      <c r="G20" s="36">
+      <c r="G20" s="35">
         <f>+VLOOKUP($B20&amp;G$14,Undersampling!$B$2:$E$44,4,0)</f>
         <v>0.87</v>
       </c>
-      <c r="H20" s="36">
+      <c r="H20" s="35">
         <f>+VLOOKUP($B20&amp;H$14,Undersampling!$B$2:$E$44,4,0)</f>
         <v>0.86</v>
       </c>
-      <c r="I20" s="36">
+      <c r="I20" s="35">
         <f>+VLOOKUP($B20&amp;I$14,Undersampling!$B$2:$E$44,4,0)</f>
         <v>0.85</v>
       </c>
-      <c r="J20" s="46">
+      <c r="J20" s="42">
         <f t="shared" si="1"/>
         <v>6.0000000000000053E-2</v>
       </c>
     </row>
-    <row r="21" spans="2:10" ht="15">
-      <c r="B21" s="42" t="s">
+    <row r="21" spans="2:10">
+      <c r="B21" s="38" t="s">
         <v>28</v>
       </c>
       <c r="C21" s="14">
         <v>0.9</v>
       </c>
-      <c r="D21" s="36">
+      <c r="D21" s="35">
         <f>+VLOOKUP($B21&amp;D$14,Undersampling!$B$2:$E$44,4,0)</f>
         <v>0.89</v>
       </c>
-      <c r="E21" s="36">
+      <c r="E21" s="35">
         <f>+VLOOKUP($B21&amp;E$14,Undersampling!$B$2:$E$44,4,0)</f>
         <v>0.86</v>
       </c>
-      <c r="F21" s="36">
+      <c r="F21" s="35">
         <f>+VLOOKUP($B21&amp;F$14,Undersampling!$B$2:$E$44,4,0)</f>
         <v>0.85</v>
       </c>
-      <c r="G21" s="36">
+      <c r="G21" s="35">
         <f>+VLOOKUP($B21&amp;G$14,Undersampling!$B$2:$E$44,4,0)</f>
         <v>0.85</v>
       </c>
-      <c r="H21" s="36">
+      <c r="H21" s="35">
         <f>+VLOOKUP($B21&amp;H$14,Undersampling!$B$2:$E$44,4,0)</f>
         <v>0.85</v>
       </c>
-      <c r="I21" s="36">
+      <c r="I21" s="35">
         <f>+VLOOKUP($B21&amp;I$14,Undersampling!$B$2:$E$44,4,0)</f>
         <v>0.84</v>
       </c>
-      <c r="J21" s="46">
+      <c r="J21" s="42">
         <f t="shared" si="1"/>
         <v>6.0000000000000053E-2</v>
       </c>
     </row>
-    <row r="22" spans="2:10" ht="15">
-      <c r="B22" s="35"/>
-      <c r="C22" s="35"/>
-      <c r="D22" s="35"/>
-      <c r="E22" s="35"/>
-      <c r="F22" s="35"/>
-      <c r="G22" s="35"/>
-      <c r="H22" s="35"/>
-      <c r="I22" s="35"/>
-      <c r="J22" s="34"/>
-    </row>
-    <row r="23" spans="2:10" ht="15">
-      <c r="B23" s="35"/>
-      <c r="C23" s="45" t="s">
+    <row r="22" spans="2:10">
+      <c r="B22" s="34"/>
+      <c r="C22" s="34"/>
+      <c r="D22" s="34"/>
+      <c r="E22" s="34"/>
+      <c r="F22" s="34"/>
+      <c r="G22" s="34"/>
+      <c r="H22" s="34"/>
+      <c r="I22" s="34"/>
+      <c r="J22" s="33"/>
+    </row>
+    <row r="23" spans="2:10">
+      <c r="B23" s="34"/>
+      <c r="C23" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="D23" s="37">
+      <c r="D23" s="36">
         <v>0.2</v>
       </c>
-      <c r="E23" s="37">
+      <c r="E23" s="36">
         <v>0.4</v>
       </c>
-      <c r="F23" s="37">
+      <c r="F23" s="36">
         <v>0.5</v>
       </c>
-      <c r="G23" s="37">
+      <c r="G23" s="36">
         <v>0.6</v>
       </c>
-      <c r="H23" s="37">
+      <c r="H23" s="36">
         <v>0.8</v>
       </c>
-      <c r="I23" s="37">
+      <c r="I23" s="36">
         <v>1</v>
       </c>
-      <c r="J23" s="37" t="s">
+      <c r="J23" s="36" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="24" spans="2:10" ht="15">
-      <c r="B24" s="42" t="s">
+    <row r="24" spans="2:10">
+      <c r="B24" s="38" t="s">
         <v>0</v>
       </c>
       <c r="C24" s="14">
         <v>0.6</v>
       </c>
-      <c r="D24" s="36">
+      <c r="D24" s="35">
         <f>+VLOOKUP($B24&amp;D$23,Undersampling!$B$2:$G$44,6,0)</f>
         <v>0.62</v>
       </c>
-      <c r="E24" s="36">
+      <c r="E24" s="35">
         <f>+VLOOKUP($B24&amp;E$23,Undersampling!$B$2:$G$44,6,0)</f>
         <v>0.76</v>
       </c>
-      <c r="F24" s="36">
+      <c r="F24" s="35">
         <f>+VLOOKUP($B24&amp;F$23,Undersampling!$B$2:$G$44,6,0)</f>
         <v>0.78</v>
       </c>
-      <c r="G24" s="36">
+      <c r="G24" s="35">
         <f>+VLOOKUP($B24&amp;G$23,Undersampling!$B$2:$G$44,6,0)</f>
         <v>0.79</v>
       </c>
-      <c r="H24" s="36">
+      <c r="H24" s="35">
         <f>+VLOOKUP($B24&amp;H$23,Undersampling!$B$2:$G$44,6,0)</f>
         <v>0.81</v>
       </c>
-      <c r="I24" s="36">
+      <c r="I24" s="35">
         <f>+VLOOKUP($B24&amp;I$23,Undersampling!$B$2:$G$44,6,0)</f>
         <v>0.82</v>
       </c>
-      <c r="J24" s="46">
+      <c r="J24" s="42">
         <f>+I24-C24</f>
         <v>0.21999999999999997</v>
       </c>
     </row>
-    <row r="25" spans="2:10" ht="15">
-      <c r="B25" s="42" t="s">
+    <row r="25" spans="2:10">
+      <c r="B25" s="38" t="s">
         <v>1</v>
       </c>
       <c r="C25" s="14">
         <v>0.54</v>
       </c>
-      <c r="D25" s="36">
+      <c r="D25" s="35">
         <f>+VLOOKUP($B25&amp;D$23,Undersampling!$B$2:$G$44,6,0)</f>
         <v>0.57999999999999996</v>
       </c>
-      <c r="E25" s="36">
+      <c r="E25" s="35">
         <f>+VLOOKUP($B25&amp;E$23,Undersampling!$B$2:$G$44,6,0)</f>
         <v>0.74</v>
       </c>
-      <c r="F25" s="36">
+      <c r="F25" s="35">
         <f>+VLOOKUP($B25&amp;F$23,Undersampling!$B$2:$G$44,6,0)</f>
         <v>0.78</v>
       </c>
-      <c r="G25" s="36">
+      <c r="G25" s="35">
         <f>+VLOOKUP($B25&amp;G$23,Undersampling!$B$2:$G$44,6,0)</f>
         <v>0.8</v>
       </c>
-      <c r="H25" s="36">
+      <c r="H25" s="35">
         <f>+VLOOKUP($B25&amp;H$23,Undersampling!$B$2:$G$44,6,0)</f>
         <v>0.83</v>
       </c>
-      <c r="I25" s="36">
+      <c r="I25" s="35">
         <f>+VLOOKUP($B25&amp;I$23,Undersampling!$B$2:$G$44,6,0)</f>
         <v>0.85</v>
       </c>
-      <c r="J25" s="46">
+      <c r="J25" s="42">
         <f t="shared" ref="J25:J30" si="2">+I25-C25</f>
         <v>0.30999999999999994</v>
       </c>
     </row>
-    <row r="26" spans="2:10" ht="15">
-      <c r="B26" s="42" t="s">
+    <row r="26" spans="2:10">
+      <c r="B26" s="38" t="s">
         <v>2</v>
       </c>
       <c r="C26" s="14">
         <v>0.56999999999999995</v>
       </c>
-      <c r="D26" s="36">
+      <c r="D26" s="35">
         <f>+VLOOKUP($B26&amp;D$23,Undersampling!$B$2:$G$44,6,0)</f>
         <v>0.59</v>
       </c>
-      <c r="E26" s="36">
+      <c r="E26" s="35">
         <f>+VLOOKUP($B26&amp;E$23,Undersampling!$B$2:$G$44,6,0)</f>
         <v>0.68</v>
       </c>
-      <c r="F26" s="36">
+      <c r="F26" s="35">
         <f>+VLOOKUP($B26&amp;F$23,Undersampling!$B$2:$G$44,6,0)</f>
         <v>0.71</v>
       </c>
-      <c r="G26" s="36">
+      <c r="G26" s="35">
         <f>+VLOOKUP($B26&amp;G$23,Undersampling!$B$2:$G$44,6,0)</f>
         <v>0.74</v>
       </c>
-      <c r="H26" s="36">
+      <c r="H26" s="35">
         <f>+VLOOKUP($B26&amp;H$23,Undersampling!$B$2:$G$44,6,0)</f>
         <v>0.77</v>
       </c>
-      <c r="I26" s="36">
+      <c r="I26" s="35">
         <f>+VLOOKUP($B26&amp;I$23,Undersampling!$B$2:$G$44,6,0)</f>
         <v>0.79</v>
       </c>
-      <c r="J26" s="46">
+      <c r="J26" s="42">
         <f t="shared" si="2"/>
         <v>0.22000000000000008</v>
       </c>
     </row>
-    <row r="27" spans="2:10" ht="15">
-      <c r="B27" s="42" t="s">
+    <row r="27" spans="2:10">
+      <c r="B27" s="38" t="s">
         <v>4</v>
       </c>
       <c r="C27" s="14">
         <v>0.63</v>
       </c>
-      <c r="D27" s="36">
+      <c r="D27" s="35">
         <f>+VLOOKUP($B27&amp;D$23,Undersampling!$B$2:$G$44,6,0)</f>
         <v>0.66</v>
       </c>
-      <c r="E27" s="36">
+      <c r="E27" s="35">
         <f>+VLOOKUP($B27&amp;E$23,Undersampling!$B$2:$G$44,6,0)</f>
         <v>0.79</v>
       </c>
-      <c r="F27" s="36">
+      <c r="F27" s="35">
         <f>+VLOOKUP($B27&amp;F$23,Undersampling!$B$2:$G$44,6,0)</f>
         <v>0.8</v>
       </c>
-      <c r="G27" s="36">
+      <c r="G27" s="35">
         <f>+VLOOKUP($B27&amp;G$23,Undersampling!$B$2:$G$44,6,0)</f>
         <v>0.8</v>
       </c>
-      <c r="H27" s="36">
+      <c r="H27" s="35">
         <f>+VLOOKUP($B27&amp;H$23,Undersampling!$B$2:$G$44,6,0)</f>
         <v>0.81</v>
       </c>
-      <c r="I27" s="36">
+      <c r="I27" s="35">
         <f>+VLOOKUP($B27&amp;I$23,Undersampling!$B$2:$G$44,6,0)</f>
         <v>0.81</v>
       </c>
-      <c r="J27" s="46">
+      <c r="J27" s="42">
         <f t="shared" si="2"/>
         <v>0.18000000000000005</v>
       </c>
     </row>
-    <row r="28" spans="2:10" ht="15">
-      <c r="B28" s="42" t="s">
+    <row r="28" spans="2:10">
+      <c r="B28" s="38" t="s">
         <v>5</v>
       </c>
       <c r="C28" s="14">
         <v>0.56000000000000005</v>
       </c>
-      <c r="D28" s="36">
+      <c r="D28" s="35">
         <f>+VLOOKUP($B28&amp;D$23,Undersampling!$B$2:$G$44,6,0)</f>
         <v>0.57999999999999996</v>
       </c>
-      <c r="E28" s="36">
+      <c r="E28" s="35">
         <f>+VLOOKUP($B28&amp;E$23,Undersampling!$B$2:$G$44,6,0)</f>
         <v>0.69</v>
       </c>
-      <c r="F28" s="36">
+      <c r="F28" s="35">
         <f>+VLOOKUP($B28&amp;F$23,Undersampling!$B$2:$G$44,6,0)</f>
         <v>0.73</v>
       </c>
-      <c r="G28" s="36">
+      <c r="G28" s="35">
         <f>+VLOOKUP($B28&amp;G$23,Undersampling!$B$2:$G$44,6,0)</f>
         <v>0.75</v>
       </c>
-      <c r="H28" s="36">
+      <c r="H28" s="35">
         <f>+VLOOKUP($B28&amp;H$23,Undersampling!$B$2:$G$44,6,0)</f>
         <v>0.79</v>
       </c>
-      <c r="I28" s="36">
+      <c r="I28" s="35">
         <f>+VLOOKUP($B28&amp;I$23,Undersampling!$B$2:$G$44,6,0)</f>
         <v>0.81</v>
       </c>
-      <c r="J28" s="48">
+      <c r="J28" s="44">
         <f t="shared" si="2"/>
         <v>0.25</v>
       </c>
     </row>
-    <row r="29" spans="2:10" ht="15">
-      <c r="B29" s="42" t="s">
+    <row r="29" spans="2:10">
+      <c r="B29" s="38" t="s">
         <v>6</v>
       </c>
       <c r="C29" s="14">
         <v>0.6</v>
       </c>
-      <c r="D29" s="36">
+      <c r="D29" s="35">
         <f>+VLOOKUP($B29&amp;D$23,Undersampling!$B$2:$G$44,6,0)</f>
         <v>0.63</v>
       </c>
-      <c r="E29" s="36">
+      <c r="E29" s="35">
         <f>+VLOOKUP($B29&amp;E$23,Undersampling!$B$2:$G$44,6,0)</f>
         <v>0.75</v>
       </c>
-      <c r="F29" s="36">
+      <c r="F29" s="35">
         <f>+VLOOKUP($B29&amp;F$23,Undersampling!$B$2:$G$44,6,0)</f>
         <v>0.78</v>
       </c>
-      <c r="G29" s="36">
+      <c r="G29" s="35">
         <f>+VLOOKUP($B29&amp;G$23,Undersampling!$B$2:$G$44,6,0)</f>
         <v>0.81</v>
       </c>
-      <c r="H29" s="36">
+      <c r="H29" s="35">
         <f>+VLOOKUP($B29&amp;H$23,Undersampling!$B$2:$G$44,6,0)</f>
         <v>0.83</v>
       </c>
-      <c r="I29" s="36">
+      <c r="I29" s="35">
         <f>+VLOOKUP($B29&amp;I$23,Undersampling!$B$2:$G$44,6,0)</f>
         <v>0.84</v>
       </c>
-      <c r="J29" s="48">
+      <c r="J29" s="44">
         <f t="shared" si="2"/>
         <v>0.24</v>
       </c>
     </row>
-    <row r="30" spans="2:10" ht="15">
-      <c r="B30" s="42" t="s">
+    <row r="30" spans="2:10">
+      <c r="B30" s="38" t="s">
         <v>28</v>
       </c>
       <c r="C30" s="14">
         <v>0.57999999999999996</v>
       </c>
-      <c r="D30" s="36">
+      <c r="D30" s="35">
         <f>+VLOOKUP($B30&amp;D$23,Undersampling!$B$2:$G$44,6,0)</f>
         <v>0.61</v>
       </c>
-      <c r="E30" s="36">
+      <c r="E30" s="35">
         <f>+VLOOKUP($B30&amp;E$23,Undersampling!$B$2:$G$44,6,0)</f>
         <v>0.73</v>
       </c>
-      <c r="F30" s="36">
+      <c r="F30" s="35">
         <f>+VLOOKUP($B30&amp;F$23,Undersampling!$B$2:$G$44,6,0)</f>
         <v>0.76</v>
       </c>
-      <c r="G30" s="36">
+      <c r="G30" s="35">
         <f>+VLOOKUP($B30&amp;G$23,Undersampling!$B$2:$G$44,6,0)</f>
         <v>0.79</v>
       </c>
-      <c r="H30" s="36">
+      <c r="H30" s="35">
         <f>+VLOOKUP($B30&amp;H$23,Undersampling!$B$2:$G$44,6,0)</f>
         <v>0.83</v>
       </c>
-      <c r="I30" s="36">
+      <c r="I30" s="35">
         <f>+VLOOKUP($B30&amp;I$23,Undersampling!$B$2:$G$44,6,0)</f>
         <v>0.84</v>
       </c>
-      <c r="J30" s="48">
+      <c r="J30" s="44">
         <f t="shared" si="2"/>
         <v>0.26</v>
       </c>
     </row>
-    <row r="31" spans="2:10" ht="15">
-      <c r="B31" s="43"/>
-      <c r="C31" s="35"/>
-      <c r="D31" s="35"/>
-      <c r="E31" s="35"/>
-      <c r="F31" s="35"/>
-      <c r="G31" s="35"/>
-      <c r="H31" s="35"/>
-      <c r="I31" s="35"/>
-      <c r="J31" s="34"/>
-    </row>
-    <row r="32" spans="2:10" ht="15">
-      <c r="B32" s="43"/>
-      <c r="C32" s="37" t="s">
+    <row r="31" spans="2:10">
+      <c r="B31" s="39"/>
+      <c r="C31" s="34"/>
+      <c r="D31" s="34"/>
+      <c r="E31" s="34"/>
+      <c r="F31" s="34"/>
+      <c r="G31" s="34"/>
+      <c r="H31" s="34"/>
+      <c r="I31" s="34"/>
+      <c r="J31" s="33"/>
+    </row>
+    <row r="32" spans="2:10">
+      <c r="B32" s="39"/>
+      <c r="C32" s="36" t="s">
         <v>35</v>
       </c>
-      <c r="D32" s="37">
+      <c r="D32" s="36">
         <v>0.2</v>
       </c>
-      <c r="E32" s="37">
+      <c r="E32" s="36">
         <v>0.4</v>
       </c>
-      <c r="F32" s="37">
+      <c r="F32" s="36">
         <v>0.5</v>
       </c>
-      <c r="G32" s="37">
+      <c r="G32" s="36">
         <v>0.6</v>
       </c>
-      <c r="H32" s="37">
+      <c r="H32" s="36">
         <v>0.8</v>
       </c>
-      <c r="I32" s="37">
+      <c r="I32" s="36">
         <v>1</v>
       </c>
-      <c r="J32" s="37" t="s">
+      <c r="J32" s="36" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="33" spans="2:10" ht="15">
-      <c r="B33" s="42" t="s">
+    <row r="33" spans="2:10">
+      <c r="B33" s="38" t="s">
         <v>0</v>
       </c>
       <c r="C33" s="14">
         <v>0.61607142857142849</v>
       </c>
-      <c r="D33" s="36">
+      <c r="D33" s="35">
         <f>+VLOOKUP($B33&amp;D$23,Undersampling!$B$2:$J$44,9,0)</f>
         <v>0.63450292397660812</v>
       </c>
-      <c r="E33" s="36">
+      <c r="E33" s="35">
         <f>+VLOOKUP($B33&amp;E$23,Undersampling!$B$2:$J$44,9,0)</f>
         <v>0.76391752577319594</v>
       </c>
-      <c r="F33" s="36">
+      <c r="F33" s="35">
         <f>+VLOOKUP($B33&amp;F$23,Undersampling!$B$2:$J$44,9,0)</f>
         <v>0.78391959798994981</v>
       </c>
-      <c r="G33" s="36">
+      <c r="G33" s="35">
         <f>+VLOOKUP($B33&amp;G$23,Undersampling!$B$2:$J$44,9,0)</f>
         <v>0.79582309582309574</v>
       </c>
-      <c r="H33" s="36">
+      <c r="H33" s="35">
         <f>+VLOOKUP($B33&amp;H$23,Undersampling!$B$2:$J$44,9,0)</f>
         <v>0.81582733812949659</v>
       </c>
-      <c r="I33" s="36">
+      <c r="I33" s="35">
         <f>+VLOOKUP($B33&amp;I$23,Undersampling!$B$2:$J$44,9,0)</f>
         <v>0.82582938388625582</v>
       </c>
-      <c r="J33" s="46">
+      <c r="J33" s="42">
         <f t="shared" ref="J33:J39" si="3">+I33-C33</f>
         <v>0.20975795531482733</v>
       </c>
     </row>
-    <row r="34" spans="2:10" ht="15">
-      <c r="B34" s="42" t="s">
+    <row r="34" spans="2:10">
+      <c r="B34" s="38" t="s">
         <v>1</v>
       </c>
       <c r="C34" s="14">
         <v>0.57203389830508489</v>
       </c>
-      <c r="D34" s="36">
+      <c r="D34" s="35">
         <f>+VLOOKUP($B34&amp;D$23,Undersampling!$B$2:$J$44,9,0)</f>
         <v>0.60883977900552477</v>
       </c>
-      <c r="E34" s="36">
+      <c r="E34" s="35">
         <f>+VLOOKUP($B34&amp;E$23,Undersampling!$B$2:$J$44,9,0)</f>
         <v>0.75126903553299496</v>
       </c>
-      <c r="F34" s="36">
+      <c r="F34" s="35">
         <f>+VLOOKUP($B34&amp;F$23,Undersampling!$B$2:$J$44,9,0)</f>
         <v>0.7858208955223881</v>
       </c>
-      <c r="G34" s="36">
+      <c r="G34" s="35">
         <f>+VLOOKUP($B34&amp;G$23,Undersampling!$B$2:$J$44,9,0)</f>
         <v>0.80582524271844658</v>
       </c>
-      <c r="H34" s="36">
+      <c r="H34" s="35">
         <f>+VLOOKUP($B34&amp;H$23,Undersampling!$B$2:$J$44,9,0)</f>
         <v>0.83392434988179664</v>
       </c>
-      <c r="I34" s="36">
+      <c r="I34" s="35">
         <f>+VLOOKUP($B34&amp;I$23,Undersampling!$B$2:$J$44,9,0)</f>
         <v>0.85</v>
       </c>
-      <c r="J34" s="48">
+      <c r="J34" s="44">
         <f t="shared" si="3"/>
         <v>0.27796610169491509</v>
       </c>
     </row>
-    <row r="35" spans="2:10" ht="15">
-      <c r="B35" s="42" t="s">
+    <row r="35" spans="2:10">
+      <c r="B35" s="38" t="s">
         <v>2</v>
       </c>
       <c r="C35" s="14">
         <v>0.56588447653429597</v>
       </c>
-      <c r="D35" s="36">
+      <c r="D35" s="35">
         <f>+VLOOKUP($B35&amp;D$23,Undersampling!$B$2:$J$44,9,0)</f>
         <v>0.5879725085910652</v>
       </c>
-      <c r="E35" s="36">
+      <c r="E35" s="35">
         <f>+VLOOKUP($B35&amp;E$23,Undersampling!$B$2:$J$44,9,0)</f>
         <v>0.68</v>
       </c>
-      <c r="F35" s="36">
+      <c r="F35" s="35">
         <f>+VLOOKUP($B35&amp;F$23,Undersampling!$B$2:$J$44,9,0)</f>
         <v>0.71</v>
       </c>
-      <c r="G35" s="36">
+      <c r="G35" s="35">
         <f>+VLOOKUP($B35&amp;G$23,Undersampling!$B$2:$J$44,9,0)</f>
         <v>0.7379781420765027</v>
       </c>
-      <c r="H35" s="36">
+      <c r="H35" s="35">
         <f>+VLOOKUP($B35&amp;H$23,Undersampling!$B$2:$J$44,9,0)</f>
         <v>0.77</v>
       </c>
-      <c r="I35" s="36">
+      <c r="I35" s="35">
         <f>+VLOOKUP($B35&amp;I$23,Undersampling!$B$2:$J$44,9,0)</f>
         <v>0.79197994987468667</v>
       </c>
-      <c r="J35" s="46">
+      <c r="J35" s="42">
         <f t="shared" si="3"/>
         <v>0.22609547334039071</v>
       </c>
     </row>
-    <row r="36" spans="2:10" ht="15">
-      <c r="B36" s="42" t="s">
+    <row r="36" spans="2:10">
+      <c r="B36" s="38" t="s">
         <v>4</v>
       </c>
       <c r="C36" s="14">
         <v>0.64285714285714279</v>
       </c>
-      <c r="D36" s="36">
+      <c r="D36" s="35">
         <f>+VLOOKUP($B36&amp;D$23,Undersampling!$B$2:$J$44,9,0)</f>
         <v>0.66763005780346818</v>
       </c>
-      <c r="E36" s="36">
+      <c r="E36" s="35">
         <f>+VLOOKUP($B36&amp;E$23,Undersampling!$B$2:$J$44,9,0)</f>
         <v>0.78166226912928771</v>
       </c>
-      <c r="F36" s="36">
+      <c r="F36" s="35">
         <f>+VLOOKUP($B36&amp;F$23,Undersampling!$B$2:$J$44,9,0)</f>
         <v>0.79591836734693877</v>
       </c>
-      <c r="G36" s="36">
+      <c r="G36" s="35">
         <f>+VLOOKUP($B36&amp;G$23,Undersampling!$B$2:$J$44,9,0)</f>
         <v>0.80198019801980203</v>
       </c>
-      <c r="H36" s="36">
+      <c r="H36" s="35">
         <f>+VLOOKUP($B36&amp;H$23,Undersampling!$B$2:$J$44,9,0)</f>
         <v>0.81582733812949659</v>
       </c>
-      <c r="I36" s="36">
+      <c r="I36" s="35">
         <f>+VLOOKUP($B36&amp;I$23,Undersampling!$B$2:$J$44,9,0)</f>
         <v>0.81952941176470606</v>
       </c>
-      <c r="J36" s="46">
+      <c r="J36" s="42">
         <f t="shared" si="3"/>
         <v>0.17667226890756327</v>
       </c>
     </row>
-    <row r="37" spans="2:10" ht="15">
-      <c r="B37" s="42" t="s">
+    <row r="37" spans="2:10">
+      <c r="B37" s="38" t="s">
         <v>5</v>
       </c>
       <c r="C37" s="14">
         <v>0.57901234567901239</v>
       </c>
-      <c r="D37" s="36">
+      <c r="D37" s="35">
         <f>+VLOOKUP($B37&amp;D$23,Undersampling!$B$2:$J$44,9,0)</f>
         <v>0.59757575757575754</v>
       </c>
-      <c r="E37" s="36">
+      <c r="E37" s="35">
         <f>+VLOOKUP($B37&amp;E$23,Undersampling!$B$2:$J$44,9,0)</f>
         <v>0.7062992125984251</v>
       </c>
-      <c r="F37" s="36">
+      <c r="F37" s="35">
         <f>+VLOOKUP($B37&amp;F$23,Undersampling!$B$2:$J$44,9,0)</f>
         <v>0.74300254452926207</v>
       </c>
-      <c r="G37" s="36">
+      <c r="G37" s="35">
         <f>+VLOOKUP($B37&amp;G$23,Undersampling!$B$2:$J$44,9,0)</f>
         <v>0.76302729528535984</v>
       </c>
-      <c r="H37" s="36">
+      <c r="H37" s="35">
         <f>+VLOOKUP($B37&amp;H$23,Undersampling!$B$2:$J$44,9,0)</f>
         <v>0.79951807228915661</v>
       </c>
-      <c r="I37" s="36">
+      <c r="I37" s="35">
         <f>+VLOOKUP($B37&amp;I$23,Undersampling!$B$2:$J$44,9,0)</f>
         <v>0.81769596199524952</v>
       </c>
-      <c r="J37" s="48">
+      <c r="J37" s="44">
         <f t="shared" si="3"/>
         <v>0.23868361631623713</v>
       </c>
     </row>
-    <row r="38" spans="2:10" ht="15">
-      <c r="B38" s="42" t="s">
+    <row r="38" spans="2:10">
+      <c r="B38" s="38" t="s">
         <v>6</v>
       </c>
       <c r="C38" s="14">
         <v>0.62068965517241381</v>
       </c>
-      <c r="D38" s="36">
+      <c r="D38" s="35">
         <f>+VLOOKUP($B38&amp;D$23,Undersampling!$B$2:$J$44,9,0)</f>
         <v>0.64774647887323955</v>
       </c>
-      <c r="E38" s="36">
+      <c r="E38" s="35">
         <f>+VLOOKUP($B38&amp;E$23,Undersampling!$B$2:$J$44,9,0)</f>
         <v>0.75767263427109977</v>
       </c>
-      <c r="F38" s="36">
+      <c r="F38" s="35">
         <f>+VLOOKUP($B38&amp;F$23,Undersampling!$B$2:$J$44,9,0)</f>
         <v>0.7858208955223881</v>
       </c>
-      <c r="G38" s="36">
+      <c r="G38" s="35">
         <f>+VLOOKUP($B38&amp;G$23,Undersampling!$B$2:$J$44,9,0)</f>
         <v>0.81392251815980643</v>
       </c>
-      <c r="H38" s="36">
+      <c r="H38" s="35">
         <f>+VLOOKUP($B38&amp;H$23,Undersampling!$B$2:$J$44,9,0)</f>
         <v>0.83392434988179664</v>
       </c>
-      <c r="I38" s="36">
+      <c r="I38" s="35">
         <f>+VLOOKUP($B38&amp;I$23,Undersampling!$B$2:$J$44,9,0)</f>
         <v>0.84392523364485983</v>
       </c>
-      <c r="J38" s="46">
+      <c r="J38" s="42">
         <f t="shared" si="3"/>
         <v>0.22323557847244602</v>
       </c>
     </row>
-    <row r="39" spans="2:10" ht="15">
-      <c r="B39" s="42" t="s">
+    <row r="39" spans="2:10">
+      <c r="B39" s="38" t="s">
         <v>28</v>
       </c>
       <c r="C39" s="14">
         <v>0.60059171597633132</v>
       </c>
-      <c r="D39" s="36">
+      <c r="D39" s="35">
         <f>+VLOOKUP($B39&amp;D$23,Undersampling!$B$2:$J$44,9,0)</f>
         <v>0.62768115942028979</v>
       </c>
-      <c r="E39" s="36">
+      <c r="E39" s="35">
         <f>+VLOOKUP($B39&amp;E$23,Undersampling!$B$2:$J$44,9,0)</f>
         <v>0.73766404199475055</v>
       </c>
-      <c r="F39" s="36">
+      <c r="F39" s="35">
         <f>+VLOOKUP($B39&amp;F$23,Undersampling!$B$2:$J$44,9,0)</f>
         <v>0.76581632653061216</v>
       </c>
-      <c r="G39" s="36">
+      <c r="G39" s="35">
         <f>+VLOOKUP($B39&amp;G$23,Undersampling!$B$2:$J$44,9,0)</f>
         <v>0.79392059553349881</v>
       </c>
-      <c r="H39" s="36">
+      <c r="H39" s="35">
         <f>+VLOOKUP($B39&amp;H$23,Undersampling!$B$2:$J$44,9,0)</f>
         <v>0.83</v>
       </c>
-      <c r="I39" s="36">
+      <c r="I39" s="35">
         <f>+VLOOKUP($B39&amp;I$23,Undersampling!$B$2:$J$44,9,0)</f>
         <v>0.84</v>
       </c>
-      <c r="J39" s="48">
+      <c r="J39" s="44">
         <f t="shared" si="3"/>
         <v>0.23940828402366865</v>
       </c>
@@ -9545,28 +9553,283 @@
       <c r="B40" s="1"/>
     </row>
     <row r="41" spans="2:10">
-      <c r="B41" s="1"/>
+      <c r="B41" s="34"/>
+      <c r="C41" s="41" t="s">
+        <v>8</v>
+      </c>
+      <c r="D41" s="36">
+        <v>0.2</v>
+      </c>
+      <c r="E41" s="36">
+        <v>0.4</v>
+      </c>
+      <c r="F41" s="36">
+        <v>0.5</v>
+      </c>
+      <c r="G41" s="36">
+        <v>0.6</v>
+      </c>
+      <c r="H41" s="36">
+        <v>0.8</v>
+      </c>
+      <c r="I41" s="36">
+        <v>1</v>
+      </c>
+      <c r="J41" s="36" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="42" spans="2:10">
-      <c r="B42" s="1"/>
+      <c r="B42" s="38" t="s">
+        <v>0</v>
+      </c>
+      <c r="C42" s="14">
+        <v>0.6</v>
+      </c>
+      <c r="D42" s="35">
+        <f>+VLOOKUP($B42&amp;D$23,Undersampling!$B$2:$G$44,6,0)</f>
+        <v>0.62</v>
+      </c>
+      <c r="E42" s="35">
+        <f>+VLOOKUP($B42&amp;E$23,Undersampling!$B$2:$G$44,6,0)</f>
+        <v>0.76</v>
+      </c>
+      <c r="F42" s="35">
+        <f>+VLOOKUP($B42&amp;F$23,Undersampling!$B$2:$G$44,6,0)</f>
+        <v>0.78</v>
+      </c>
+      <c r="G42" s="35">
+        <f>+VLOOKUP($B42&amp;G$23,Undersampling!$B$2:$G$44,6,0)</f>
+        <v>0.79</v>
+      </c>
+      <c r="H42" s="35">
+        <f>+VLOOKUP($B42&amp;H$23,Undersampling!$B$2:$G$44,6,0)</f>
+        <v>0.81</v>
+      </c>
+      <c r="I42" s="35">
+        <f>+VLOOKUP($B42&amp;I$23,Undersampling!$B$2:$G$44,6,0)</f>
+        <v>0.82</v>
+      </c>
+      <c r="J42" s="42">
+        <f>+I42-C42</f>
+        <v>0.21999999999999997</v>
+      </c>
     </row>
     <row r="43" spans="2:10">
-      <c r="B43" s="1"/>
+      <c r="B43" s="38" t="s">
+        <v>1</v>
+      </c>
+      <c r="C43" s="14">
+        <v>0.54</v>
+      </c>
+      <c r="D43" s="35">
+        <f>+VLOOKUP($B43&amp;D$23,Undersampling!$B$2:$G$44,6,0)</f>
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="E43" s="35">
+        <f>+VLOOKUP($B43&amp;E$23,Undersampling!$B$2:$G$44,6,0)</f>
+        <v>0.74</v>
+      </c>
+      <c r="F43" s="35">
+        <f>+VLOOKUP($B43&amp;F$23,Undersampling!$B$2:$G$44,6,0)</f>
+        <v>0.78</v>
+      </c>
+      <c r="G43" s="35">
+        <f>+VLOOKUP($B43&amp;G$23,Undersampling!$B$2:$G$44,6,0)</f>
+        <v>0.8</v>
+      </c>
+      <c r="H43" s="35">
+        <f>+VLOOKUP($B43&amp;H$23,Undersampling!$B$2:$G$44,6,0)</f>
+        <v>0.83</v>
+      </c>
+      <c r="I43" s="35">
+        <f>+VLOOKUP($B43&amp;I$23,Undersampling!$B$2:$G$44,6,0)</f>
+        <v>0.85</v>
+      </c>
+      <c r="J43" s="42">
+        <f t="shared" ref="J43:J48" si="4">+I43-C43</f>
+        <v>0.30999999999999994</v>
+      </c>
     </row>
     <row r="44" spans="2:10">
-      <c r="B44" s="1"/>
+      <c r="B44" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="C44" s="14">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="D44" s="35">
+        <f>+VLOOKUP($B44&amp;D$23,Undersampling!$B$2:$G$44,6,0)</f>
+        <v>0.59</v>
+      </c>
+      <c r="E44" s="35">
+        <f>+VLOOKUP($B44&amp;E$23,Undersampling!$B$2:$G$44,6,0)</f>
+        <v>0.68</v>
+      </c>
+      <c r="F44" s="35">
+        <f>+VLOOKUP($B44&amp;F$23,Undersampling!$B$2:$G$44,6,0)</f>
+        <v>0.71</v>
+      </c>
+      <c r="G44" s="35">
+        <f>+VLOOKUP($B44&amp;G$23,Undersampling!$B$2:$G$44,6,0)</f>
+        <v>0.74</v>
+      </c>
+      <c r="H44" s="35">
+        <f>+VLOOKUP($B44&amp;H$23,Undersampling!$B$2:$G$44,6,0)</f>
+        <v>0.77</v>
+      </c>
+      <c r="I44" s="35">
+        <f>+VLOOKUP($B44&amp;I$23,Undersampling!$B$2:$G$44,6,0)</f>
+        <v>0.79</v>
+      </c>
+      <c r="J44" s="42">
+        <f t="shared" si="4"/>
+        <v>0.22000000000000008</v>
+      </c>
     </row>
     <row r="45" spans="2:10">
-      <c r="B45" s="1"/>
+      <c r="B45" s="38" t="s">
+        <v>4</v>
+      </c>
+      <c r="C45" s="14">
+        <v>0.63</v>
+      </c>
+      <c r="D45" s="35">
+        <f>+VLOOKUP($B45&amp;D$23,Undersampling!$B$2:$G$44,6,0)</f>
+        <v>0.66</v>
+      </c>
+      <c r="E45" s="35">
+        <f>+VLOOKUP($B45&amp;E$23,Undersampling!$B$2:$G$44,6,0)</f>
+        <v>0.79</v>
+      </c>
+      <c r="F45" s="35">
+        <f>+VLOOKUP($B45&amp;F$23,Undersampling!$B$2:$G$44,6,0)</f>
+        <v>0.8</v>
+      </c>
+      <c r="G45" s="35">
+        <f>+VLOOKUP($B45&amp;G$23,Undersampling!$B$2:$G$44,6,0)</f>
+        <v>0.8</v>
+      </c>
+      <c r="H45" s="35">
+        <f>+VLOOKUP($B45&amp;H$23,Undersampling!$B$2:$G$44,6,0)</f>
+        <v>0.81</v>
+      </c>
+      <c r="I45" s="35">
+        <f>+VLOOKUP($B45&amp;I$23,Undersampling!$B$2:$G$44,6,0)</f>
+        <v>0.81</v>
+      </c>
+      <c r="J45" s="42">
+        <f t="shared" si="4"/>
+        <v>0.18000000000000005</v>
+      </c>
     </row>
     <row r="46" spans="2:10">
-      <c r="B46" s="1"/>
+      <c r="B46" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="C46" s="14">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="D46" s="35">
+        <f>+VLOOKUP($B46&amp;D$23,Undersampling!$B$2:$G$44,6,0)</f>
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="E46" s="35">
+        <f>+VLOOKUP($B46&amp;E$23,Undersampling!$B$2:$G$44,6,0)</f>
+        <v>0.69</v>
+      </c>
+      <c r="F46" s="35">
+        <f>+VLOOKUP($B46&amp;F$23,Undersampling!$B$2:$G$44,6,0)</f>
+        <v>0.73</v>
+      </c>
+      <c r="G46" s="35">
+        <f>+VLOOKUP($B46&amp;G$23,Undersampling!$B$2:$G$44,6,0)</f>
+        <v>0.75</v>
+      </c>
+      <c r="H46" s="35">
+        <f>+VLOOKUP($B46&amp;H$23,Undersampling!$B$2:$G$44,6,0)</f>
+        <v>0.79</v>
+      </c>
+      <c r="I46" s="35">
+        <f>+VLOOKUP($B46&amp;I$23,Undersampling!$B$2:$G$44,6,0)</f>
+        <v>0.81</v>
+      </c>
+      <c r="J46" s="44">
+        <f t="shared" si="4"/>
+        <v>0.25</v>
+      </c>
     </row>
     <row r="47" spans="2:10">
-      <c r="B47" s="1"/>
+      <c r="B47" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="C47" s="14">
+        <v>0.6</v>
+      </c>
+      <c r="D47" s="35">
+        <f>+VLOOKUP($B47&amp;D$23,Undersampling!$B$2:$G$44,6,0)</f>
+        <v>0.63</v>
+      </c>
+      <c r="E47" s="35">
+        <f>+VLOOKUP($B47&amp;E$23,Undersampling!$B$2:$G$44,6,0)</f>
+        <v>0.75</v>
+      </c>
+      <c r="F47" s="35">
+        <f>+VLOOKUP($B47&amp;F$23,Undersampling!$B$2:$G$44,6,0)</f>
+        <v>0.78</v>
+      </c>
+      <c r="G47" s="35">
+        <f>+VLOOKUP($B47&amp;G$23,Undersampling!$B$2:$G$44,6,0)</f>
+        <v>0.81</v>
+      </c>
+      <c r="H47" s="35">
+        <f>+VLOOKUP($B47&amp;H$23,Undersampling!$B$2:$G$44,6,0)</f>
+        <v>0.83</v>
+      </c>
+      <c r="I47" s="35">
+        <f>+VLOOKUP($B47&amp;I$23,Undersampling!$B$2:$G$44,6,0)</f>
+        <v>0.84</v>
+      </c>
+      <c r="J47" s="44">
+        <f t="shared" si="4"/>
+        <v>0.24</v>
+      </c>
     </row>
     <row r="48" spans="2:10">
-      <c r="B48" s="1"/>
+      <c r="B48" s="38" t="s">
+        <v>28</v>
+      </c>
+      <c r="C48" s="14">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="D48" s="35">
+        <f>+VLOOKUP($B48&amp;D$23,Undersampling!$B$2:$G$44,6,0)</f>
+        <v>0.61</v>
+      </c>
+      <c r="E48" s="35">
+        <f>+VLOOKUP($B48&amp;E$23,Undersampling!$B$2:$G$44,6,0)</f>
+        <v>0.73</v>
+      </c>
+      <c r="F48" s="35">
+        <f>+VLOOKUP($B48&amp;F$23,Undersampling!$B$2:$G$44,6,0)</f>
+        <v>0.76</v>
+      </c>
+      <c r="G48" s="35">
+        <f>+VLOOKUP($B48&amp;G$23,Undersampling!$B$2:$G$44,6,0)</f>
+        <v>0.79</v>
+      </c>
+      <c r="H48" s="35">
+        <f>+VLOOKUP($B48&amp;H$23,Undersampling!$B$2:$G$44,6,0)</f>
+        <v>0.83</v>
+      </c>
+      <c r="I48" s="35">
+        <f>+VLOOKUP($B48&amp;I$23,Undersampling!$B$2:$G$44,6,0)</f>
+        <v>0.84</v>
+      </c>
+      <c r="J48" s="44">
+        <f t="shared" si="4"/>
+        <v>0.26</v>
+      </c>
     </row>
     <row r="49" spans="2:2">
       <c r="B49" s="1"/>
@@ -9595,8 +9858,272 @@
   <mergeCells count="1">
     <mergeCell ref="D13:I13"/>
   </mergeCells>
+  <conditionalFormatting sqref="C4:C10">
+    <cfRule type="colorScale" priority="63">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C15:I15">
+    <cfRule type="colorScale" priority="31">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C16:I16">
+    <cfRule type="colorScale" priority="27">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C17:I17">
+    <cfRule type="colorScale" priority="26">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C18:I18">
+    <cfRule type="colorScale" priority="25">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C19:I19">
+    <cfRule type="colorScale" priority="24">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C20:I20">
+    <cfRule type="colorScale" priority="23">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C21:I21">
+    <cfRule type="colorScale" priority="22">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C24:I24">
+    <cfRule type="colorScale" priority="21">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C25:I25">
+    <cfRule type="colorScale" priority="20">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C26:I26">
+    <cfRule type="colorScale" priority="19">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C27:I27">
+    <cfRule type="colorScale" priority="18">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C28:I28">
+    <cfRule type="colorScale" priority="17">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C29:I29">
+    <cfRule type="colorScale" priority="16">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C30:I30">
+    <cfRule type="colorScale" priority="15">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C33:I33">
+    <cfRule type="colorScale" priority="14">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C34:I34">
+    <cfRule type="colorScale" priority="13">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C35:I35">
+    <cfRule type="colorScale" priority="12">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C36:I36">
+    <cfRule type="colorScale" priority="11">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C37:I37">
+    <cfRule type="colorScale" priority="10">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C38:I38">
+    <cfRule type="colorScale" priority="9">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C39:I39">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="D4:D10">
-    <cfRule type="colorScale" priority="48">
+    <cfRule type="colorScale" priority="55">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -9608,7 +10135,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4:E10">
-    <cfRule type="colorScale" priority="50">
+    <cfRule type="colorScale" priority="57">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -9620,7 +10147,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4:F10">
-    <cfRule type="colorScale" priority="52">
+    <cfRule type="colorScale" priority="59">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -9632,19 +10159,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4:G10">
-    <cfRule type="colorScale" priority="54">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C4:C10">
-    <cfRule type="colorScale" priority="56">
+    <cfRule type="colorScale" priority="61">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -9656,7 +10171,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4:H10">
-    <cfRule type="colorScale" priority="58">
+    <cfRule type="colorScale" priority="65">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -9667,175 +10182,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C15:I15">
-    <cfRule type="colorScale" priority="24">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C16:I16">
-    <cfRule type="colorScale" priority="20">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C17:I17">
-    <cfRule type="colorScale" priority="19">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C18:I18">
-    <cfRule type="colorScale" priority="18">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C19:I19">
-    <cfRule type="colorScale" priority="17">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C20:I20">
-    <cfRule type="colorScale" priority="16">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C21:I21">
-    <cfRule type="colorScale" priority="15">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C24:I24">
-    <cfRule type="colorScale" priority="14">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C25:I25">
-    <cfRule type="colorScale" priority="13">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C26:I26">
-    <cfRule type="colorScale" priority="12">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C27:I27">
-    <cfRule type="colorScale" priority="11">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C28:I28">
-    <cfRule type="colorScale" priority="10">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C29:I29">
-    <cfRule type="colorScale" priority="9">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C30:I30">
-    <cfRule type="colorScale" priority="8">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C33:I33">
+  <conditionalFormatting sqref="C42:I42">
     <cfRule type="colorScale" priority="7">
       <colorScale>
         <cfvo type="min"/>
@@ -9847,7 +10194,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C34:I34">
+  <conditionalFormatting sqref="C43:I43">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
@@ -9859,7 +10206,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C35:I35">
+  <conditionalFormatting sqref="C44:I44">
     <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
@@ -9871,7 +10218,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C36:I36">
+  <conditionalFormatting sqref="C45:I45">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
@@ -9883,7 +10230,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C37:I37">
+  <conditionalFormatting sqref="C46:I46">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
@@ -9895,7 +10242,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C38:I38">
+  <conditionalFormatting sqref="C47:I47">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -9907,7 +10254,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C39:I39">
+  <conditionalFormatting sqref="C48:I48">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -9927,18 +10274,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{460DB4E5-3E19-422D-8CBB-EF9D1C3D51AE}">
   <dimension ref="B2:E21"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A21" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="20.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" ht="45.6">
+    <row r="2" spans="2:5" ht="42">
       <c r="B2" s="3"/>
-      <c r="C2" s="30" t="s">
+      <c r="C2" s="29" t="s">
         <v>38</v>
       </c>
       <c r="D2" s="15" t="s">
@@ -10050,7 +10397,7 @@
         <v>0.26</v>
       </c>
     </row>
-    <row r="14" spans="2:5" ht="34.200000000000003">
+    <row r="14" spans="2:5" ht="42">
       <c r="C14" s="15" t="s">
         <v>46</v>
       </c>
@@ -10173,18 +10520,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D6F5F7B-7EA3-4CB7-861B-D49302FAC50A}">
   <dimension ref="B2:J44"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" topLeftCell="A15" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="22.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.21875" customWidth="1"/>
-    <col min="5" max="5" width="8.6640625" customWidth="1"/>
+    <col min="2" max="2" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.28515625" customWidth="1"/>
+    <col min="5" max="5" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" ht="15">
-      <c r="B2" s="31" t="s">
+    <row r="2" spans="2:10">
+      <c r="B2" s="30" t="s">
         <v>45</v>
       </c>
       <c r="C2" s="28" t="s">
@@ -10212,8 +10559,8 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="2:10" ht="16.05" customHeight="1">
-      <c r="B3" s="32" t="str">
+    <row r="3" spans="2:10" ht="16.149999999999999" customHeight="1">
+      <c r="B3" s="31" t="str">
         <f>+C3&amp;D3</f>
         <v>AdaBoostClassifier0.2</v>
       </c>
@@ -10239,13 +10586,13 @@
         <v>0.88</v>
       </c>
       <c r="J3" s="27">
-        <f>5*G3*F3/((4*F3)+G3)</f>
+        <f t="shared" ref="J3:J44" si="0">5*G3*F3/((4*F3)+G3)</f>
         <v>0.59757575757575754</v>
       </c>
     </row>
-    <row r="4" spans="2:10" ht="16.05" customHeight="1">
-      <c r="B4" s="32" t="str">
-        <f t="shared" ref="B4:B44" si="0">+C4&amp;D4</f>
+    <row r="4" spans="2:10" ht="16.149999999999999" customHeight="1">
+      <c r="B4" s="31" t="str">
+        <f t="shared" ref="B4:B44" si="1">+C4&amp;D4</f>
         <v>AdaBoostClassifier0.4</v>
       </c>
       <c r="C4" s="26" t="s">
@@ -10270,13 +10617,13 @@
         <v>0.85</v>
       </c>
       <c r="J4" s="27">
-        <f>5*G4*F4/((4*F4)+G4)</f>
+        <f t="shared" si="0"/>
         <v>0.7062992125984251</v>
       </c>
     </row>
-    <row r="5" spans="2:10" ht="16.05" customHeight="1">
-      <c r="B5" s="32" t="str">
-        <f t="shared" si="0"/>
+    <row r="5" spans="2:10" ht="16.149999999999999" customHeight="1">
+      <c r="B5" s="31" t="str">
+        <f t="shared" si="1"/>
         <v>AdaBoostClassifier0.5</v>
       </c>
       <c r="C5" s="26" t="s">
@@ -10301,13 +10648,13 @@
         <v>0.85</v>
       </c>
       <c r="J5" s="27">
-        <f>5*G5*F5/((4*F5)+G5)</f>
+        <f t="shared" si="0"/>
         <v>0.74300254452926207</v>
       </c>
     </row>
-    <row r="6" spans="2:10" ht="16.05" customHeight="1">
-      <c r="B6" s="32" t="str">
-        <f t="shared" si="0"/>
+    <row r="6" spans="2:10" ht="16.149999999999999" customHeight="1">
+      <c r="B6" s="31" t="str">
+        <f t="shared" si="1"/>
         <v>AdaBoostClassifier0.6</v>
       </c>
       <c r="C6" s="26" t="s">
@@ -10332,13 +10679,13 @@
         <v>0.84</v>
       </c>
       <c r="J6" s="27">
-        <f>5*G6*F6/((4*F6)+G6)</f>
+        <f t="shared" si="0"/>
         <v>0.76302729528535984</v>
       </c>
     </row>
-    <row r="7" spans="2:10" ht="16.05" customHeight="1">
-      <c r="B7" s="32" t="str">
-        <f t="shared" si="0"/>
+    <row r="7" spans="2:10" ht="16.149999999999999" customHeight="1">
+      <c r="B7" s="31" t="str">
+        <f t="shared" si="1"/>
         <v>AdaBoostClassifier0.8</v>
       </c>
       <c r="C7" s="26" t="s">
@@ -10363,13 +10710,13 @@
         <v>0.84</v>
       </c>
       <c r="J7" s="27">
-        <f>5*G7*F7/((4*F7)+G7)</f>
+        <f t="shared" si="0"/>
         <v>0.79951807228915661</v>
       </c>
     </row>
-    <row r="8" spans="2:10" ht="16.05" customHeight="1">
-      <c r="B8" s="32" t="str">
-        <f t="shared" si="0"/>
+    <row r="8" spans="2:10" ht="16.149999999999999" customHeight="1">
+      <c r="B8" s="31" t="str">
+        <f t="shared" si="1"/>
         <v>AdaBoostClassifier1</v>
       </c>
       <c r="C8" s="26" t="s">
@@ -10394,13 +10741,13 @@
         <v>0.83</v>
       </c>
       <c r="J8" s="27">
-        <f>5*G8*F8/((4*F8)+G8)</f>
+        <f t="shared" si="0"/>
         <v>0.81769596199524952</v>
       </c>
     </row>
-    <row r="9" spans="2:10" ht="16.05" customHeight="1">
-      <c r="B9" s="32" t="str">
-        <f t="shared" si="0"/>
+    <row r="9" spans="2:10" ht="16.149999999999999" customHeight="1">
+      <c r="B9" s="31" t="str">
+        <f t="shared" si="1"/>
         <v>DecisionTreeClassifier0.2</v>
       </c>
       <c r="C9" s="26" t="s">
@@ -10425,13 +10772,13 @@
         <v>0.86</v>
       </c>
       <c r="J9" s="27">
-        <f>5*G9*F9/((4*F9)+G9)</f>
+        <f t="shared" si="0"/>
         <v>0.5879725085910652</v>
       </c>
     </row>
-    <row r="10" spans="2:10" ht="16.05" customHeight="1">
-      <c r="B10" s="32" t="str">
-        <f t="shared" si="0"/>
+    <row r="10" spans="2:10" ht="16.149999999999999" customHeight="1">
+      <c r="B10" s="31" t="str">
+        <f t="shared" si="1"/>
         <v>DecisionTreeClassifier0.4</v>
       </c>
       <c r="C10" s="26" t="s">
@@ -10456,13 +10803,13 @@
         <v>0.82</v>
       </c>
       <c r="J10" s="27">
-        <f>5*G10*F10/((4*F10)+G10)</f>
+        <f t="shared" si="0"/>
         <v>0.68</v>
       </c>
     </row>
-    <row r="11" spans="2:10" ht="16.05" customHeight="1">
-      <c r="B11" s="32" t="str">
-        <f t="shared" si="0"/>
+    <row r="11" spans="2:10" ht="16.149999999999999" customHeight="1">
+      <c r="B11" s="31" t="str">
+        <f t="shared" si="1"/>
         <v>DecisionTreeClassifier0.5</v>
       </c>
       <c r="C11" s="26" t="s">
@@ -10487,13 +10834,13 @@
         <v>0.81</v>
       </c>
       <c r="J11" s="27">
-        <f>5*G11*F11/((4*F11)+G11)</f>
+        <f t="shared" si="0"/>
         <v>0.71</v>
       </c>
     </row>
-    <row r="12" spans="2:10" ht="16.05" customHeight="1">
-      <c r="B12" s="32" t="str">
-        <f t="shared" si="0"/>
+    <row r="12" spans="2:10" ht="16.149999999999999" customHeight="1">
+      <c r="B12" s="31" t="str">
+        <f t="shared" si="1"/>
         <v>DecisionTreeClassifier0.6</v>
       </c>
       <c r="C12" s="26" t="s">
@@ -10518,13 +10865,13 @@
         <v>0.8</v>
       </c>
       <c r="J12" s="27">
-        <f>5*G12*F12/((4*F12)+G12)</f>
+        <f t="shared" si="0"/>
         <v>0.7379781420765027</v>
       </c>
     </row>
-    <row r="13" spans="2:10" ht="16.05" customHeight="1">
-      <c r="B13" s="32" t="str">
-        <f t="shared" si="0"/>
+    <row r="13" spans="2:10" ht="16.149999999999999" customHeight="1">
+      <c r="B13" s="31" t="str">
+        <f t="shared" si="1"/>
         <v>DecisionTreeClassifier0.8</v>
       </c>
       <c r="C13" s="26" t="s">
@@ -10549,13 +10896,13 @@
         <v>0.8</v>
       </c>
       <c r="J13" s="27">
-        <f>5*G13*F13/((4*F13)+G13)</f>
+        <f t="shared" si="0"/>
         <v>0.77</v>
       </c>
     </row>
-    <row r="14" spans="2:10" ht="16.05" customHeight="1">
-      <c r="B14" s="32" t="str">
-        <f t="shared" si="0"/>
+    <row r="14" spans="2:10" ht="16.149999999999999" customHeight="1">
+      <c r="B14" s="31" t="str">
+        <f t="shared" si="1"/>
         <v>DecisionTreeClassifier1</v>
       </c>
       <c r="C14" s="26" t="s">
@@ -10580,13 +10927,13 @@
         <v>0.79</v>
       </c>
       <c r="J14" s="27">
-        <f>5*G14*F14/((4*F14)+G14)</f>
+        <f t="shared" si="0"/>
         <v>0.79197994987468667</v>
       </c>
     </row>
     <row r="15" spans="2:10">
-      <c r="B15" s="32" t="str">
-        <f t="shared" si="0"/>
+      <c r="B15" s="31" t="str">
+        <f t="shared" si="1"/>
         <v>GradientBoostingClassifier0.2</v>
       </c>
       <c r="C15" s="26" t="s">
@@ -10611,13 +10958,13 @@
         <v>0.9</v>
       </c>
       <c r="J15" s="27">
-        <f>5*G15*F15/((4*F15)+G15)</f>
+        <f t="shared" si="0"/>
         <v>0.64774647887323955</v>
       </c>
     </row>
     <row r="16" spans="2:10">
-      <c r="B16" s="32" t="str">
-        <f t="shared" si="0"/>
+      <c r="B16" s="31" t="str">
+        <f t="shared" si="1"/>
         <v>GradientBoostingClassifier0.4</v>
       </c>
       <c r="C16" s="26" t="s">
@@ -10642,13 +10989,13 @@
         <v>0.87</v>
       </c>
       <c r="J16" s="27">
-        <f>5*G16*F16/((4*F16)+G16)</f>
+        <f t="shared" si="0"/>
         <v>0.75767263427109977</v>
       </c>
     </row>
     <row r="17" spans="2:10">
-      <c r="B17" s="32" t="str">
-        <f t="shared" si="0"/>
+      <c r="B17" s="31" t="str">
+        <f t="shared" si="1"/>
         <v>GradientBoostingClassifier0.5</v>
       </c>
       <c r="C17" s="26" t="s">
@@ -10673,13 +11020,13 @@
         <v>0.87</v>
       </c>
       <c r="J17" s="27">
-        <f>5*G17*F17/((4*F17)+G17)</f>
+        <f t="shared" si="0"/>
         <v>0.7858208955223881</v>
       </c>
     </row>
     <row r="18" spans="2:10">
-      <c r="B18" s="32" t="str">
-        <f t="shared" si="0"/>
+      <c r="B18" s="31" t="str">
+        <f t="shared" si="1"/>
         <v>GradientBoostingClassifier0.6</v>
       </c>
       <c r="C18" s="26" t="s">
@@ -10704,13 +11051,13 @@
         <v>0.87</v>
       </c>
       <c r="J18" s="27">
-        <f>5*G18*F18/((4*F18)+G18)</f>
+        <f t="shared" si="0"/>
         <v>0.81392251815980643</v>
       </c>
     </row>
     <row r="19" spans="2:10">
-      <c r="B19" s="32" t="str">
-        <f t="shared" si="0"/>
+      <c r="B19" s="31" t="str">
+        <f t="shared" si="1"/>
         <v>GradientBoostingClassifier0.8</v>
       </c>
       <c r="C19" s="26" t="s">
@@ -10735,13 +11082,13 @@
         <v>0.86</v>
       </c>
       <c r="J19" s="27">
-        <f>5*G19*F19/((4*F19)+G19)</f>
+        <f t="shared" si="0"/>
         <v>0.83392434988179664</v>
       </c>
     </row>
     <row r="20" spans="2:10">
-      <c r="B20" s="32" t="str">
-        <f t="shared" si="0"/>
+      <c r="B20" s="31" t="str">
+        <f t="shared" si="1"/>
         <v>GradientBoostingClassifier1</v>
       </c>
       <c r="C20" s="26" t="s">
@@ -10766,13 +11113,13 @@
         <v>0.85</v>
       </c>
       <c r="J20" s="27">
-        <f>5*G20*F20/((4*F20)+G20)</f>
+        <f t="shared" si="0"/>
         <v>0.84392523364485983</v>
       </c>
     </row>
     <row r="21" spans="2:10">
-      <c r="B21" s="32" t="str">
-        <f t="shared" si="0"/>
+      <c r="B21" s="31" t="str">
+        <f t="shared" si="1"/>
         <v>LogisticRegression0.2</v>
       </c>
       <c r="C21" s="26" t="s">
@@ -10797,13 +11144,13 @@
         <v>0.89</v>
       </c>
       <c r="J21" s="27">
-        <f>5*G21*F21/((4*F21)+G21)</f>
+        <f t="shared" si="0"/>
         <v>0.63450292397660812</v>
       </c>
     </row>
     <row r="22" spans="2:10">
-      <c r="B22" s="32" t="str">
-        <f t="shared" si="0"/>
+      <c r="B22" s="31" t="str">
+        <f t="shared" si="1"/>
         <v>LogisticRegression0.4</v>
       </c>
       <c r="C22" s="26" t="s">
@@ -10828,13 +11175,13 @@
         <v>0.87</v>
       </c>
       <c r="J22" s="27">
-        <f>5*G22*F22/((4*F22)+G22)</f>
+        <f t="shared" si="0"/>
         <v>0.76391752577319594</v>
       </c>
     </row>
     <row r="23" spans="2:10">
-      <c r="B23" s="32" t="str">
-        <f t="shared" si="0"/>
+      <c r="B23" s="31" t="str">
+        <f t="shared" si="1"/>
         <v>LogisticRegression0.5</v>
       </c>
       <c r="C23" s="26" t="s">
@@ -10859,13 +11206,13 @@
         <v>0.86</v>
       </c>
       <c r="J23" s="27">
-        <f>5*G23*F23/((4*F23)+G23)</f>
+        <f t="shared" si="0"/>
         <v>0.78391959798994981</v>
       </c>
     </row>
     <row r="24" spans="2:10">
-      <c r="B24" s="32" t="str">
-        <f t="shared" si="0"/>
+      <c r="B24" s="31" t="str">
+        <f t="shared" si="1"/>
         <v>LogisticRegression0.6</v>
       </c>
       <c r="C24" s="26" t="s">
@@ -10890,13 +11237,13 @@
         <v>0.86</v>
       </c>
       <c r="J24" s="27">
-        <f>5*G24*F24/((4*F24)+G24)</f>
+        <f t="shared" si="0"/>
         <v>0.79582309582309574</v>
       </c>
     </row>
     <row r="25" spans="2:10">
-      <c r="B25" s="32" t="str">
-        <f t="shared" si="0"/>
+      <c r="B25" s="31" t="str">
+        <f t="shared" si="1"/>
         <v>LogisticRegression0.8</v>
       </c>
       <c r="C25" s="26" t="s">
@@ -10921,13 +11268,13 @@
         <v>0.85</v>
       </c>
       <c r="J25" s="27">
-        <f>5*G25*F25/((4*F25)+G25)</f>
+        <f t="shared" si="0"/>
         <v>0.81582733812949659</v>
       </c>
     </row>
     <row r="26" spans="2:10">
-      <c r="B26" s="32" t="str">
-        <f t="shared" si="0"/>
+      <c r="B26" s="31" t="str">
+        <f t="shared" si="1"/>
         <v>LogisticRegression1</v>
       </c>
       <c r="C26" s="26" t="s">
@@ -10952,13 +11299,13 @@
         <v>0.84</v>
       </c>
       <c r="J26" s="27">
-        <f>5*G26*F26/((4*F26)+G26)</f>
+        <f t="shared" si="0"/>
         <v>0.82582938388625582</v>
       </c>
     </row>
     <row r="27" spans="2:10">
-      <c r="B27" s="32" t="str">
-        <f t="shared" si="0"/>
+      <c r="B27" s="31" t="str">
+        <f t="shared" si="1"/>
         <v>RandomForestClassifier0.2</v>
       </c>
       <c r="C27" s="26" t="s">
@@ -10983,13 +11330,13 @@
         <v>0.9</v>
       </c>
       <c r="J27" s="27">
-        <f>5*G27*F27/((4*F27)+G27)</f>
+        <f t="shared" si="0"/>
         <v>0.60883977900552477</v>
       </c>
     </row>
     <row r="28" spans="2:10">
-      <c r="B28" s="32" t="str">
-        <f t="shared" si="0"/>
+      <c r="B28" s="31" t="str">
+        <f t="shared" si="1"/>
         <v>RandomForestClassifier0.4</v>
       </c>
       <c r="C28" s="26" t="s">
@@ -11014,13 +11361,13 @@
         <v>0.87</v>
       </c>
       <c r="J28" s="27">
-        <f>5*G28*F28/((4*F28)+G28)</f>
+        <f t="shared" si="0"/>
         <v>0.75126903553299496</v>
       </c>
     </row>
     <row r="29" spans="2:10">
-      <c r="B29" s="32" t="str">
-        <f t="shared" si="0"/>
+      <c r="B29" s="31" t="str">
+        <f t="shared" si="1"/>
         <v>RandomForestClassifier0.5</v>
       </c>
       <c r="C29" s="26" t="s">
@@ -11045,13 +11392,13 @@
         <v>0.87</v>
       </c>
       <c r="J29" s="27">
-        <f>5*G29*F29/((4*F29)+G29)</f>
+        <f t="shared" si="0"/>
         <v>0.7858208955223881</v>
       </c>
     </row>
     <row r="30" spans="2:10">
-      <c r="B30" s="32" t="str">
-        <f t="shared" si="0"/>
+      <c r="B30" s="31" t="str">
+        <f t="shared" si="1"/>
         <v>RandomForestClassifier0.6</v>
       </c>
       <c r="C30" s="26" t="s">
@@ -11076,13 +11423,13 @@
         <v>0.86</v>
       </c>
       <c r="J30" s="27">
-        <f>5*G30*F30/((4*F30)+G30)</f>
+        <f t="shared" si="0"/>
         <v>0.80582524271844658</v>
       </c>
     </row>
     <row r="31" spans="2:10">
-      <c r="B31" s="32" t="str">
-        <f t="shared" si="0"/>
+      <c r="B31" s="31" t="str">
+        <f t="shared" si="1"/>
         <v>RandomForestClassifier0.8</v>
       </c>
       <c r="C31" s="26" t="s">
@@ -11107,13 +11454,13 @@
         <v>0.86</v>
       </c>
       <c r="J31" s="27">
-        <f>5*G31*F31/((4*F31)+G31)</f>
+        <f t="shared" si="0"/>
         <v>0.83392434988179664</v>
       </c>
     </row>
     <row r="32" spans="2:10">
-      <c r="B32" s="32" t="str">
-        <f t="shared" si="0"/>
+      <c r="B32" s="31" t="str">
+        <f t="shared" si="1"/>
         <v>RandomForestClassifier1</v>
       </c>
       <c r="C32" s="26" t="s">
@@ -11138,13 +11485,13 @@
         <v>0.85</v>
       </c>
       <c r="J32" s="27">
-        <f>5*G32*F32/((4*F32)+G32)</f>
+        <f t="shared" si="0"/>
         <v>0.85</v>
       </c>
     </row>
     <row r="33" spans="2:10">
-      <c r="B33" s="32" t="str">
-        <f t="shared" si="0"/>
+      <c r="B33" s="31" t="str">
+        <f t="shared" si="1"/>
         <v>SVC0.2</v>
       </c>
       <c r="C33" s="26" t="s">
@@ -11169,13 +11516,13 @@
         <v>0.9</v>
       </c>
       <c r="J33" s="27">
-        <f>5*G33*F33/((4*F33)+G33)</f>
+        <f t="shared" si="0"/>
         <v>0.66763005780346818</v>
       </c>
     </row>
     <row r="34" spans="2:10">
-      <c r="B34" s="32" t="str">
-        <f t="shared" si="0"/>
+      <c r="B34" s="31" t="str">
+        <f t="shared" si="1"/>
         <v>SVC0.4</v>
       </c>
       <c r="C34" s="26" t="s">
@@ -11200,13 +11547,13 @@
         <v>0.87</v>
       </c>
       <c r="J34" s="27">
-        <f>5*G34*F34/((4*F34)+G34)</f>
+        <f t="shared" si="0"/>
         <v>0.78166226912928771</v>
       </c>
     </row>
     <row r="35" spans="2:10">
-      <c r="B35" s="32" t="str">
-        <f t="shared" si="0"/>
+      <c r="B35" s="31" t="str">
+        <f t="shared" si="1"/>
         <v>SVC0.5</v>
       </c>
       <c r="C35" s="26" t="s">
@@ -11231,13 +11578,13 @@
         <v>0.86</v>
       </c>
       <c r="J35" s="27">
-        <f>5*G35*F35/((4*F35)+G35)</f>
+        <f t="shared" si="0"/>
         <v>0.79591836734693877</v>
       </c>
     </row>
     <row r="36" spans="2:10">
-      <c r="B36" s="32" t="str">
-        <f t="shared" si="0"/>
+      <c r="B36" s="31" t="str">
+        <f t="shared" si="1"/>
         <v>SVC0.6</v>
       </c>
       <c r="C36" s="26" t="s">
@@ -11262,13 +11609,13 @@
         <v>0.85</v>
       </c>
       <c r="J36" s="27">
-        <f>5*G36*F36/((4*F36)+G36)</f>
+        <f t="shared" si="0"/>
         <v>0.80198019801980203</v>
       </c>
     </row>
     <row r="37" spans="2:10">
-      <c r="B37" s="32" t="str">
-        <f t="shared" si="0"/>
+      <c r="B37" s="31" t="str">
+        <f t="shared" si="1"/>
         <v>SVC0.8</v>
       </c>
       <c r="C37" s="26" t="s">
@@ -11293,13 +11640,13 @@
         <v>0.85</v>
       </c>
       <c r="J37" s="27">
-        <f>5*G37*F37/((4*F37)+G37)</f>
+        <f t="shared" si="0"/>
         <v>0.81582733812949659</v>
       </c>
     </row>
     <row r="38" spans="2:10">
-      <c r="B38" s="32" t="str">
-        <f t="shared" si="0"/>
+      <c r="B38" s="31" t="str">
+        <f t="shared" si="1"/>
         <v>SVC1</v>
       </c>
       <c r="C38" s="26" t="s">
@@ -11324,13 +11671,13 @@
         <v>0.84</v>
       </c>
       <c r="J38" s="27">
-        <f>5*G38*F38/((4*F38)+G38)</f>
+        <f t="shared" si="0"/>
         <v>0.81952941176470606</v>
       </c>
     </row>
     <row r="39" spans="2:10">
-      <c r="B39" s="32" t="str">
-        <f t="shared" si="0"/>
+      <c r="B39" s="31" t="str">
+        <f t="shared" si="1"/>
         <v>XGBClassifier0.2</v>
       </c>
       <c r="C39" s="26" t="s">
@@ -11355,13 +11702,13 @@
         <v>0.89</v>
       </c>
       <c r="J39" s="27">
-        <f>5*G39*F39/((4*F39)+G39)</f>
+        <f t="shared" si="0"/>
         <v>0.62768115942028979</v>
       </c>
     </row>
     <row r="40" spans="2:10">
-      <c r="B40" s="32" t="str">
-        <f t="shared" si="0"/>
+      <c r="B40" s="31" t="str">
+        <f t="shared" si="1"/>
         <v>XGBClassifier0.4</v>
       </c>
       <c r="C40" s="26" t="s">
@@ -11386,13 +11733,13 @@
         <v>0.86</v>
       </c>
       <c r="J40" s="27">
-        <f>5*G40*F40/((4*F40)+G40)</f>
+        <f t="shared" si="0"/>
         <v>0.73766404199475055</v>
       </c>
     </row>
     <row r="41" spans="2:10">
-      <c r="B41" s="32" t="str">
-        <f t="shared" si="0"/>
+      <c r="B41" s="31" t="str">
+        <f t="shared" si="1"/>
         <v>XGBClassifier0.5</v>
       </c>
       <c r="C41" s="26" t="s">
@@ -11417,13 +11764,13 @@
         <v>0.85</v>
       </c>
       <c r="J41" s="27">
-        <f>5*G41*F41/((4*F41)+G41)</f>
+        <f t="shared" si="0"/>
         <v>0.76581632653061216</v>
       </c>
     </row>
     <row r="42" spans="2:10">
-      <c r="B42" s="32" t="str">
-        <f t="shared" si="0"/>
+      <c r="B42" s="31" t="str">
+        <f t="shared" si="1"/>
         <v>XGBClassifier0.6</v>
       </c>
       <c r="C42" s="26" t="s">
@@ -11448,13 +11795,13 @@
         <v>0.85</v>
       </c>
       <c r="J42" s="27">
-        <f>5*G42*F42/((4*F42)+G42)</f>
+        <f t="shared" si="0"/>
         <v>0.79392059553349881</v>
       </c>
     </row>
     <row r="43" spans="2:10">
-      <c r="B43" s="32" t="str">
-        <f t="shared" si="0"/>
+      <c r="B43" s="31" t="str">
+        <f t="shared" si="1"/>
         <v>XGBClassifier0.8</v>
       </c>
       <c r="C43" s="26" t="s">
@@ -11479,13 +11826,13 @@
         <v>0.85</v>
       </c>
       <c r="J43" s="27">
-        <f>5*G43*F43/((4*F43)+G43)</f>
+        <f t="shared" si="0"/>
         <v>0.83</v>
       </c>
     </row>
     <row r="44" spans="2:10">
-      <c r="B44" s="32" t="str">
-        <f t="shared" si="0"/>
+      <c r="B44" s="31" t="str">
+        <f t="shared" si="1"/>
         <v>XGBClassifier1</v>
       </c>
       <c r="C44" s="26" t="s">
@@ -11510,7 +11857,7 @@
         <v>0.84</v>
       </c>
       <c r="J44" s="27">
-        <f>5*G44*F44/((4*F44)+G44)</f>
+        <f t="shared" si="0"/>
         <v>0.84</v>
       </c>
     </row>
@@ -11623,19 +11970,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE65C776-AC17-49BC-86E9-1CCFD7CEF4D1}">
   <dimension ref="B3:N32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25:H32"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="17.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.44140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.44140625" customWidth="1"/>
+    <col min="2" max="2" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.42578125" customWidth="1"/>
     <col min="13" max="13" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:14" ht="22.8">
+    <row r="3" spans="2:14" ht="21">
       <c r="D3" s="3" t="s">
         <v>9</v>
       </c>
@@ -11655,7 +12002,7 @@
         <v>35</v>
       </c>
       <c r="K3" s="3"/>
-      <c r="L3" s="30" t="s">
+      <c r="L3" s="29" t="s">
         <v>38</v>
       </c>
       <c r="M3" s="15" t="s">
@@ -11666,7 +12013,7 @@
       </c>
     </row>
     <row r="4" spans="2:14">
-      <c r="B4" s="29" t="s">
+      <c r="B4" t="s">
         <v>36</v>
       </c>
       <c r="C4" s="6" t="s">
@@ -11707,7 +12054,7 @@
       </c>
     </row>
     <row r="5" spans="2:14">
-      <c r="B5" s="29" t="s">
+      <c r="B5" t="s">
         <v>36</v>
       </c>
       <c r="C5" s="6" t="s">
@@ -11748,7 +12095,7 @@
       </c>
     </row>
     <row r="6" spans="2:14">
-      <c r="B6" s="29" t="s">
+      <c r="B6" t="s">
         <v>36</v>
       </c>
       <c r="C6" s="6" t="s">
@@ -11789,7 +12136,7 @@
       </c>
     </row>
     <row r="7" spans="2:14">
-      <c r="B7" s="29" t="s">
+      <c r="B7" t="s">
         <v>36</v>
       </c>
       <c r="C7" s="6" t="s">
@@ -11830,7 +12177,7 @@
       </c>
     </row>
     <row r="8" spans="2:14">
-      <c r="B8" s="29" t="s">
+      <c r="B8" t="s">
         <v>36</v>
       </c>
       <c r="C8" s="6" t="s">
@@ -11871,7 +12218,7 @@
       </c>
     </row>
     <row r="9" spans="2:14">
-      <c r="B9" s="29" t="s">
+      <c r="B9" t="s">
         <v>36</v>
       </c>
       <c r="C9" s="6" t="s">
@@ -11912,7 +12259,7 @@
       </c>
     </row>
     <row r="10" spans="2:14">
-      <c r="B10" s="29" t="s">
+      <c r="B10" t="s">
         <v>36</v>
       </c>
       <c r="C10" s="6" t="s">
@@ -12158,14 +12505,14 @@
         <v>0.9459314775160601</v>
       </c>
     </row>
-    <row r="21" spans="2:14" ht="43.2">
+    <row r="21" spans="2:14" ht="45">
       <c r="L21" s="15" t="s">
         <v>46</v>
       </c>
       <c r="M21" t="s">
         <v>36</v>
       </c>
-      <c r="N21" s="44" t="s">
+      <c r="N21" s="40" t="s">
         <v>51</v>
       </c>
     </row>
@@ -12181,7 +12528,7 @@
         <v>0.93393234672304459</v>
       </c>
       <c r="N22" s="23">
-        <f>+F13</f>
+        <f t="shared" ref="N22:N28" si="4">+F13</f>
         <v>0.86</v>
       </c>
     </row>
@@ -12193,11 +12540,11 @@
         <v>0.57203389830508489</v>
       </c>
       <c r="M23" s="10">
-        <f t="shared" ref="M23:M28" si="4">+I5</f>
+        <f t="shared" ref="M23:M28" si="5">+I5</f>
         <v>0.98</v>
       </c>
       <c r="N23" s="23">
-        <f>+F14</f>
+        <f t="shared" si="4"/>
         <v>0.97</v>
       </c>
     </row>
@@ -12209,11 +12556,11 @@
         <v>0.56588447653429597</v>
       </c>
       <c r="M24" s="10">
+        <f t="shared" si="5"/>
+        <v>0.96798336798336804</v>
+      </c>
+      <c r="N24" s="23">
         <f t="shared" si="4"/>
-        <v>0.96798336798336804</v>
-      </c>
-      <c r="N24" s="23">
-        <f>+F15</f>
         <v>0.91</v>
       </c>
     </row>
@@ -12231,11 +12578,11 @@
         <v>0.64285714285714279</v>
       </c>
       <c r="M25" s="10">
+        <f t="shared" si="5"/>
+        <v>0.96</v>
+      </c>
+      <c r="N25" s="23">
         <f t="shared" si="4"/>
-        <v>0.96</v>
-      </c>
-      <c r="N25" s="23">
-        <f>+F16</f>
         <v>0.94</v>
       </c>
     </row>
@@ -12253,11 +12600,11 @@
         <v>0.57901234567901239</v>
       </c>
       <c r="M26" s="10">
+        <f t="shared" si="5"/>
+        <v>0.94198312236286896</v>
+      </c>
+      <c r="N26" s="23">
         <f t="shared" si="4"/>
-        <v>0.94198312236286896</v>
-      </c>
-      <c r="N26" s="23">
-        <f>+F17</f>
         <v>0.88</v>
       </c>
     </row>
@@ -12275,11 +12622,11 @@
         <v>0.62068965517241381</v>
       </c>
       <c r="M27" s="10">
+        <f t="shared" si="5"/>
+        <v>0.96</v>
+      </c>
+      <c r="N27" s="23">
         <f t="shared" si="4"/>
-        <v>0.96</v>
-      </c>
-      <c r="N27" s="23">
-        <f>+F18</f>
         <v>0.94</v>
       </c>
     </row>
@@ -12297,11 +12644,11 @@
         <v>0.60059171597633132</v>
       </c>
       <c r="M28" s="10">
+        <f t="shared" si="5"/>
+        <v>0.98798370672097757</v>
+      </c>
+      <c r="N28" s="23">
         <f t="shared" si="4"/>
-        <v>0.98798370672097757</v>
-      </c>
-      <c r="N28" s="23">
-        <f>+F19</f>
         <v>0.95</v>
       </c>
     </row>
@@ -12351,16 +12698,16 @@
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="3" max="3" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.21875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.77734375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.77734375" customWidth="1"/>
-    <col min="9" max="9" width="14.5546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.7109375" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="3:15">
